--- a/biology/Botanique/Senna_hebecarpa/Senna_hebecarpa.xlsx
+++ b/biology/Botanique/Senna_hebecarpa/Senna_hebecarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senna hebecarpa est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire d'Amérique du Nord.
 Ce sont des plantes herbacées vivaces pouvant atteindre 2 m de haut.
-La plante est parfois cultivée comme plante ornementale. Dans le Nord-Est des États-Unis, l'espèce est classée comme menacée ou en danger d'extinction, principalement du fait de la perte d'habitat[5].
+La plante est parfois cultivée comme plante ornementale. Dans le Nord-Est des États-Unis, l'espèce est classée comme menacée ou en danger d'extinction, principalement du fait de la perte d'habitat.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle de Senna hebecarpa s'étend dans l'est des États-Unis dans les États suivants : Alabama, Caroline du Nord, Illinois, Kentucky, Tennessee, Vermont, Wisconsin[6].
-Cette espèce se rencontre généralement dans des sites perturbés, dans les prairies humides, les pâturages, les champs cultivés ou sur les bords de routes, et en particulier dans le lit majeur des cours d'eau. Elle prospère  en plein soleil ou dans des situations partiellement ombragées. Bien qu’elle préfère les sols humides, elle pousse également sur des terrains secs[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle de Senna hebecarpa s'étend dans l'est des États-Unis dans les États suivants : Alabama, Caroline du Nord, Illinois, Kentucky, Tennessee, Vermont, Wisconsin.
+Cette espèce se rencontre généralement dans des sites perturbés, dans les prairies humides, les pâturages, les champs cultivés ou sur les bords de routes, et en particulier dans le lit majeur des cours d'eau. Elle prospère  en plein soleil ou dans des situations partiellement ombragées. Bien qu’elle préfère les sols humides, elle pousse également sur des terrains secs.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (11 octobre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (11 octobre 2018) (Attention liste brute contenant possiblement des synonymes) :
 variété Senna hebecarpa var. hebecarpa
 variété Senna hebecarpa var. longipila (E.L. Braun) C.F. Reed</t>
         </is>
